--- a/sample_data/2024/Q3/file_two_2024-09-30.xlsx
+++ b/sample_data/2024/Q3/file_two_2024-09-30.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Desktop/File_checks/sample_data/2024/Q3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C744B995-4CF1-1C47-BCB1-5FC5D470CB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F871342-34DE-734D-90C5-38C33751A935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16880" xr2:uid="{80B438F4-2709-A746-ADCD-824188E6626E}"/>
+    <workbookView xWindow="2600" yWindow="1300" windowWidth="27640" windowHeight="16880" xr2:uid="{80B438F4-2709-A746-ADCD-824188E6626E}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="2" r:id="rId1"/>
     <sheet name="Diff" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>a</t>
   </si>
@@ -91,6 +94,33 @@
   </si>
   <si>
     <t>Current</t>
+  </si>
+  <si>
+    <t>col1</t>
+  </si>
+  <si>
+    <t>desc1</t>
+  </si>
+  <si>
+    <t>desc2</t>
+  </si>
+  <si>
+    <t>desc3</t>
+  </si>
+  <si>
+    <t>col2</t>
+  </si>
+  <si>
+    <t>col4</t>
+  </si>
+  <si>
+    <t>desc4</t>
+  </si>
+  <si>
+    <t>desc5</t>
+  </si>
+  <si>
+    <t>test_row</t>
   </si>
 </sst>
 </file>
@@ -106,12 +136,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,8 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,6 +180,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="data"/>
+      <sheetName val="data2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="8">
+          <cell r="K8">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="K16">
+            <v>50</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4878BF-AB65-BB47-97C0-0C2689FD2CED}">
-  <dimension ref="A4:C8"/>
+  <dimension ref="A4:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,15 +548,45 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>85</v>
+      </c>
+      <c r="C9" s="1">
+        <f>[1]data2!$K$16+[1]data2!$K$8</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -500,26 +596,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151B90E6-00AF-184B-9009-DB96519BD282}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>123</v>
       </c>
@@ -529,8 +631,14 @@
       <c r="D2">
         <v>1235</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -540,60 +648,248 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.73</v>
+      </c>
+      <c r="F6">
+        <v>8.2999999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.53</v>
+      </c>
+      <c r="F7">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.45</v>
+      </c>
+      <c r="F8">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.3</v>
+      </c>
+      <c r="F10">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.63</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.83</v>
+      </c>
+      <c r="F12">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.27</v>
+      </c>
+      <c r="F13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.96</v>
+      </c>
+      <c r="F14">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.74</v>
+      </c>
+      <c r="F15">
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>10</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.79</v>
+      </c>
+      <c r="F16">
+        <v>8.1999999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/sample_data/2024/Q3/file_two_2024-09-30.xlsx
+++ b/sample_data/2024/Q3/file_two_2024-09-30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Desktop/File_checks/sample_data/2024/Q3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F871342-34DE-734D-90C5-38C33751A935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC30231-FDE4-314C-8E8F-D89403105FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="1300" windowWidth="27640" windowHeight="16880" xr2:uid="{80B438F4-2709-A746-ADCD-824188E6626E}"/>
+    <workbookView xWindow="2600" yWindow="1280" windowWidth="27640" windowHeight="16880" xr2:uid="{80B438F4-2709-A746-ADCD-824188E6626E}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="2" r:id="rId1"/>
@@ -531,7 +531,7 @@
   <dimension ref="A4:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,7 +585,7 @@
         <v>85</v>
       </c>
       <c r="C9" s="1">
-        <f>[1]data2!$K$16+[1]data2!$K$8</f>
+        <f>[1]data2!$K$8+[1]data2!$K$16</f>
         <v>100</v>
       </c>
     </row>

--- a/sample_data/2024/Q3/file_two_2024-09-30.xlsx
+++ b/sample_data/2024/Q3/file_two_2024-09-30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Desktop/File_checks/sample_data/2024/Q3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC30231-FDE4-314C-8E8F-D89403105FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA46CF54-B891-0640-8192-D5CD5121B8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="1280" windowWidth="27640" windowHeight="16880" xr2:uid="{80B438F4-2709-A746-ADCD-824188E6626E}"/>
+    <workbookView xWindow="6060" yWindow="760" windowWidth="27640" windowHeight="16880" activeTab="1" xr2:uid="{80B438F4-2709-A746-ADCD-824188E6626E}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>a</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>test_row</t>
+  </si>
+  <si>
+    <t>col3</t>
+  </si>
+  <si>
+    <t>col5</t>
   </si>
 </sst>
 </file>
@@ -530,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4878BF-AB65-BB47-97C0-0C2689FD2CED}">
   <dimension ref="A4:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -598,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151B90E6-00AF-184B-9009-DB96519BD282}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,13 +618,13 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
